--- a/Daily/Ljung_Box/Log-Prices/NIKKEI.xlsx
+++ b/Daily/Ljung_Box/Log-Prices/NIKKEI.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.750383994908973</v>
+        <v>0.7196755743216579</v>
+      </c>
+      <c r="C2">
+        <v>0.3962503472688589</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.286731227663254</v>
+        <v>0.9037456313621366</v>
+      </c>
+      <c r="C3">
+        <v>0.6364351091437661</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3.442751630606308</v>
+        <v>1.151860851779084</v>
       </c>
       <c r="C4">
-        <v>0.06352980417360482</v>
+        <v>0.7645716730319074</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3.799348715380973</v>
+        <v>1.391934363242821</v>
       </c>
       <c r="C5">
-        <v>0.1496173330244364</v>
+        <v>0.8455956447721885</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.968111841281257</v>
+        <v>2.052882796217699</v>
       </c>
       <c r="C6">
-        <v>0.2649281266657462</v>
+        <v>0.8417803782924846</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4.656023629632819</v>
+        <v>2.718285229188795</v>
       </c>
       <c r="C7">
-        <v>0.3244458133814231</v>
+        <v>0.8432827879627569</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5.046441750283538</v>
+        <v>2.960977042745635</v>
       </c>
       <c r="C8">
-        <v>0.410238727019778</v>
+        <v>0.8885885444552306</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5.660373441790691</v>
+        <v>3.632529007213503</v>
       </c>
       <c r="C9">
-        <v>0.4622891278730948</v>
+        <v>0.888664267158523</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.311514500536958</v>
+        <v>4.225738277613069</v>
       </c>
       <c r="C10">
-        <v>0.5038823814821946</v>
+        <v>0.8959365617852897</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6.371947639608114</v>
+        <v>4.315495223537567</v>
       </c>
       <c r="C11">
-        <v>0.605643515249368</v>
+        <v>0.9319941509147582</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7.498912568636561</v>
+        <v>5.539164937596412</v>
       </c>
       <c r="C12">
-        <v>0.5853210334057086</v>
+        <v>0.9022781401968767</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7.867336289582032</v>
+        <v>5.902011224921587</v>
       </c>
       <c r="C13">
-        <v>0.6417935831763504</v>
+        <v>0.9209407350536563</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7.942894558599565</v>
+        <v>5.94850185171906</v>
       </c>
       <c r="C14">
-        <v>0.7184099533729056</v>
+        <v>0.9480071107407469</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7.963593862550301</v>
+        <v>5.958520314013903</v>
       </c>
       <c r="C15">
-        <v>0.7879688947288398</v>
+        <v>0.9675261314924273</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>9.753343956327328</v>
+        <v>7.689143774521181</v>
       </c>
       <c r="C16">
-        <v>0.7139691776341545</v>
+        <v>0.9356398138160487</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>9.764309042327987</v>
+        <v>7.707911129527687</v>
       </c>
       <c r="C17">
-        <v>0.7792041659805311</v>
+        <v>0.9570899456676397</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>10.85256707155615</v>
+        <v>9.031062728760814</v>
       </c>
       <c r="C18">
-        <v>0.7629738972916653</v>
+        <v>0.9392822459849768</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>10.93061062646888</v>
+        <v>9.132627773583735</v>
       </c>
       <c r="C19">
-        <v>0.8137479196656825</v>
+        <v>0.9565907288261926</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>11.04212001009538</v>
+        <v>9.343080339063908</v>
       </c>
       <c r="C20">
-        <v>0.8543660218363134</v>
+        <v>0.9673367535337043</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>11.07990123656992</v>
+        <v>9.356272995795701</v>
       </c>
       <c r="C21">
-        <v>0.8909352806318707</v>
+        <v>0.9784012956269255</v>
       </c>
     </row>
   </sheetData>
